--- a/thing.xlsx
+++ b/thing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scottish.sharepoint.com/sites/NESDEWTeam/DEW/Workstreams/KIND/KIND community meetups/2023-11-14 version control/vc demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{23ABFBA1-8776-4CA1-9B52-CBBC96A8A88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{23ABFBA1-8776-4CA1-9B52-CBBC96A8A88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF2DB51-900C-42CD-B7E2-9347D6967834}"/>
   <bookViews>
     <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,15 +337,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -355,10 +355,359 @@
       <c r="C1">
         <v>3</v>
       </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Workstream xmlns="294fe445-719d-4043-ab4f-ba106fa54ef2">
+      <Value>All</Value>
+    </Workstream>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5b3c289c-d7fa-4d2f-8ff2-e9ef9d3429f7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="294fe445-719d-4043-ab4f-ba106fa54ef2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B651C767EC1D494485C6416D733B614E" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d1cacec9a1bcce8b1e86bf7c8837b570">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="294fe445-719d-4043-ab4f-ba106fa54ef2" xmlns:ns3="5b3c289c-d7fa-4d2f-8ff2-e9ef9d3429f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e97d73254fb72ba0de454f5ee815517" ns2:_="" ns3:_="">
+    <xsd:import namespace="294fe445-719d-4043-ab4f-ba106fa54ef2"/>
+    <xsd:import namespace="5b3c289c-d7fa-4d2f-8ff2-e9ef9d3429f7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:Workstream" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="294fe445-719d-4043-ab4f-ba106fa54ef2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Workstream" ma:index="8" nillable="true" ma:displayName="Workstream" ma:default="All" ma:internalName="Workstream">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoice">
+            <xsd:sequence>
+              <xsd:element name="Value" maxOccurs="unbounded" minOccurs="0" nillable="true">
+                <xsd:simpleType>
+                  <xsd:restriction base="dms:Choice">
+                    <xsd:enumeration value="All"/>
+                    <xsd:enumeration value="Microsoft 365"/>
+                    <xsd:enumeration value="KIND"/>
+                    <xsd:enumeration value="Digital Learning Design"/>
+                    <xsd:enumeration value="Digital Champions"/>
+                    <xsd:enumeration value="Leadership Programme"/>
+                    <xsd:enumeration value="Near Me"/>
+                    <xsd:enumeration value="Connect Me"/>
+                    <xsd:enumeration value="Platform"/>
+                    <xsd:enumeration value="Care Homes"/>
+                  </xsd:restriction>
+                </xsd:simpleType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e4c37b9d-a850-46d6-a142-5c834403c959}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="294fe445-719d-4043-ab4f-ba106fa54ef2">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5b3c289c-d7fa-4d2f-8ff2-e9ef9d3429f7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="16ac32b6-d060-42fb-93c0-6c46742e1aee" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="26" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EB0065D-704E-4819-B112-528C077B2121}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="294fe445-719d-4043-ab4f-ba106fa54ef2"/>
+    <ds:schemaRef ds:uri="5b3c289c-d7fa-4d2f-8ff2-e9ef9d3429f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A75BAAD-AD03-433D-85E2-73B4A766D877}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4A44F3F-02C2-451A-8CE9-FCF297D87D71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="294fe445-719d-4043-ab4f-ba106fa54ef2"/>
+    <ds:schemaRef ds:uri="5b3c289c-d7fa-4d2f-8ff2-e9ef9d3429f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
